--- a/CN/炉石全卡收集模拟器结论.xlsx
+++ b/CN/炉石全卡收集模拟器结论.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\litia_000\Documents\usaco\hs_card_simulator\CN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\litia_000\Documents\GitHub\hs_collecting_set_simulator\CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>平均开包数</t>
   </si>
@@ -57,24 +57,32 @@
   </si>
   <si>
     <t>收集全卡</t>
+  </si>
+  <si>
+    <t>龙争虎斗加基森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇闯安戈洛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -100,10 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,21 +393,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -415,266 +424,383 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="C2">
         <v>457</v>
       </c>
       <c r="D2" s="2">
         <f>B2/C2</f>
-        <v>1.074398249452954</v>
+        <v>1.0328227571115973</v>
       </c>
       <c r="E2" s="1">
         <f>388/60*B2</f>
-        <v>3175.1333333333332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3052.2666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C3">
         <v>226</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D5" si="0">B3/C3</f>
-        <v>1.3539823008849559</v>
+        <f t="shared" ref="D3:D7" si="0">B3/C3</f>
+        <v>1.3008849557522124</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E11" si="1">388/60*B3</f>
-        <v>1978.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <f t="shared" ref="E3:E15" si="1">388/60*B3</f>
+        <v>1901.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C4">
         <v>244</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>1.2704918032786885</v>
+        <v>1.221311475409836</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>2004.6666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1927.0666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C5">
         <v>244</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>1.2704918032786885</v>
+        <v>1.221311475409836</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>2004.6666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1927.0666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>298</v>
+      </c>
+      <c r="C6">
+        <v>244</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.221311475409836</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>1927.0666666666666</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>327</v>
+      </c>
+      <c r="C7">
+        <v>247</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3238866396761133</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>2114.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>2598</v>
-      </c>
-      <c r="C8">
+      <c r="B10">
+        <v>2364</v>
+      </c>
+      <c r="C10">
         <v>457</v>
       </c>
-      <c r="D8" s="2">
-        <f>B8/C8</f>
-        <v>5.6849015317286655</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>16800.400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="D10" s="2">
+        <f>B10/C10</f>
+        <v>5.1728665207877462</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>15287.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>1502</v>
-      </c>
-      <c r="C9">
+      <c r="B11">
+        <v>1365</v>
+      </c>
+      <c r="C11">
         <v>226</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" ref="D9:D11" si="2">B9/C9</f>
-        <v>6.6460176991150446</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>9712.9333333333343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:D15" si="2">B11/C11</f>
+        <v>6.0398230088495577</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>8827</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>1551</v>
-      </c>
-      <c r="C10">
+      <c r="B12">
+        <v>1410</v>
+      </c>
+      <c r="C12">
         <v>244</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D12" s="2">
         <f t="shared" si="2"/>
-        <v>6.3565573770491799</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>10029.800000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+        <v>5.778688524590164</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>9118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>1579</v>
-      </c>
-      <c r="C11">
+      <c r="B13">
+        <v>1434</v>
+      </c>
+      <c r="C13">
         <v>247</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D13" s="2">
         <f t="shared" si="2"/>
-        <v>6.3927125506072873</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>10210.866666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+        <v>5.8056680161943319</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>9273.2000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1410</v>
+      </c>
+      <c r="C14">
+        <v>244</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>5.778688524590164</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>9118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>1474</v>
+      </c>
+      <c r="C15">
+        <v>247</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>5.9676113360323884</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>9531.8666666666668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B14">
-        <v>2782</v>
-      </c>
-      <c r="C14">
+      <c r="B18">
+        <v>2535</v>
+      </c>
+      <c r="C18">
         <v>914</v>
       </c>
-      <c r="D14" s="2">
-        <f>B14/C14</f>
-        <v>3.0437636761487963</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" ref="E14:E17" si="3">388/60*B14</f>
-        <v>17990.266666666666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="D18" s="2">
+        <f>B18/C18</f>
+        <v>2.773522975929978</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:E23" si="3">388/60*B18</f>
+        <v>16393</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
-        <v>1622</v>
-      </c>
-      <c r="C15">
+      <c r="B19">
+        <v>1477</v>
+      </c>
+      <c r="C19">
         <v>452</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15:D17" si="4">B15/C15</f>
-        <v>3.5884955752212391</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:D23" si="4">B19/C19</f>
+        <v>3.2676991150442478</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="3"/>
-        <v>10488.933333333334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+        <v>9551.2666666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
-        <v>1672</v>
-      </c>
-      <c r="C16">
+      <c r="B20">
+        <v>1522</v>
+      </c>
+      <c r="C20">
         <v>488</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D20" s="2">
         <f t="shared" si="4"/>
-        <v>3.4262295081967213</v>
-      </c>
-      <c r="E16" s="1">
+        <v>3.1188524590163933</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="3"/>
-        <v>10812.266666666666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+        <v>9842.2666666666664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B17">
-        <v>1700</v>
-      </c>
-      <c r="C17">
+      <c r="B21">
+        <v>1547</v>
+      </c>
+      <c r="C21">
         <v>491</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D21" s="2">
         <f t="shared" si="4"/>
-        <v>3.4623217922606924</v>
-      </c>
-      <c r="E17" s="1">
+        <v>3.1507128309572301</v>
+      </c>
+      <c r="E21" s="1">
         <f t="shared" si="3"/>
-        <v>10993.333333333334</v>
+        <v>10003.933333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>1522</v>
+      </c>
+      <c r="C22">
+        <v>488</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="4"/>
+        <v>3.1188524590163933</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="3"/>
+        <v>9842.2666666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>1599</v>
+      </c>
+      <c r="C23">
+        <v>494</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="4"/>
+        <v>3.236842105263158</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="3"/>
+        <v>10340.200000000001</v>
       </c>
     </row>
   </sheetData>
